--- a/medicine/Enfance/Frédéric_H._Fajardie/Frédéric_H._Fajardie.xlsx
+++ b/medicine/Enfance/Frédéric_H._Fajardie/Frédéric_H._Fajardie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
+          <t>Frédéric_H._Fajardie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frédéric H. Fajardie, nom de plume de Ronald Moreau[1],[2],[3],, né le 28 août 1947, à Paris, et mort dans la même ville le 1er mai 2008, est un écrivain et scénariste français, auteur de romans noirs[4] et policiers[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédéric H. Fajardie, nom de plume de Ronald Moreau né le 28 août 1947, à Paris, et mort dans la même ville le 1er mai 2008, est un écrivain et scénariste français, auteur de romans noirs et policiers.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
+          <t>Frédéric_H._Fajardie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il grandit dans la librairie de son père bouquiniste et libertaire, rue de Tolbiac dans le 13e arrondissement de Paris[6], où il lit de très nombreux romans et nouvelles. Dès l'âge de 16 ans, le marxisme devient le repère idéologique de sa vie. En 1968, acquis aux idées de gauche, il milite à la Gauche prolétarienne, exerce divers petits métiers et, dès le mois de mai 1968, veut devenir le premier militant « engagé » à écrire des romans noirs.
-Il publie son premier roman noir, Tueurs de flics, en août 1979. Dans cette adaptation très libre de l'Orestie, un mythe de la Grèce antique, un commissaire est chargé d'une enquête qui doit lui permettre « d'arrêter des tueurs qui se plaisent à découper ses collègues »[7]. Ce premier roman s'inscrit dans le nouveau genre littéraire du néo-polar. Il est salué, dès cette époque, par les critiques Max-Pol Fouchet et Alain Dugrand.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il grandit dans la librairie de son père bouquiniste et libertaire, rue de Tolbiac dans le 13e arrondissement de Paris, où il lit de très nombreux romans et nouvelles. Dès l'âge de 16 ans, le marxisme devient le repère idéologique de sa vie. En 1968, acquis aux idées de gauche, il milite à la Gauche prolétarienne, exerce divers petits métiers et, dès le mois de mai 1968, veut devenir le premier militant « engagé » à écrire des romans noirs.
+Il publie son premier roman noir, Tueurs de flics, en août 1979. Dans cette adaptation très libre de l'Orestie, un mythe de la Grèce antique, un commissaire est chargé d'une enquête qui doit lui permettre « d'arrêter des tueurs qui se plaisent à découper ses collègues ». Ce premier roman s'inscrit dans le nouveau genre littéraire du néo-polar. Il est salué, dès cette époque, par les critiques Max-Pol Fouchet et Alain Dugrand.
 À partir du milieu des années 1980, il signe des scénarios pour le cinéma et commence en parallèle à publier des romans de facture plus classique, tout en poursuivant son œuvre dans le roman noir. En 1989, le critique Renaud Matignon fait son éloge.
 Réfractaire aux étiquettes et aux ghettos, il n'apprécie pas le socialisme mitterrandien, contre lequel il écrit, en 1993, Chronique d'une liquidation politique.
 En 1998, avec la bénédiction du critique Bernard Frank, il participe à l'émission littéraire Le Cercle de minuit.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
+          <t>Frédéric_H._Fajardie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +561,49 @@
           <t>Son œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour Fajardie, polar et roman noir sont les meilleurs moyens d'explorer l'envers et les travers de la société contemporaine. Dans son œuvre, où l'esprit chevaleresque de ses personnages s'oppose à la médiocrité contemporaine, son gauchisme politique s'allie aux valeurs d'honneur, de fidélité et souvent de fraternisation au-delà des oppositions idéologiques ou historiques.
 Ses œuvres, dans leur versions publiées aux éditions NÉO (reprises ensuite par La Table ronde), portent des couvertures dessinées par Jean-Claude Claeys. Elles restituent à merveille la sombre atmosphère urbaine, la violence et la désillusion qui se mêlent dans l'œuvre de Fajardie.
-Romans noirs
-1979 : La Nuit des chats bottés (écrit en 1977)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frédéric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Son œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans noirs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1979 : La Nuit des chats bottés (écrit en 1977)
 1979 : Querelleur
 1980 : Sniper
 1980 : Gentil, Faty !
@@ -567,43 +618,259 @@
 1997 : Après la pluie
 1998 : Les Hauts Vents
 1998 : Reines dans la ville
-2007 : Tu ressembles à ma mort
-Série Padovani
-1979 : Tueurs de flics (écrit en 1975)
+2007 : Tu ressembles à ma mort</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frédéric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Son œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans noirs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Padovani</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1979 : Tueurs de flics (écrit en 1975)
 1981 : La Théorie du 1%
 1982 : Le Souffle court
 1984 : Polichinelle mouillé
 1994 : Patte de velours (Prix Paris-Première 1994)
 2004 : Full Speed
-Le 7e roman mettant en scène le commissaire Antonio C. Padovani était en cours d'écriture. Il restera inachevé[8].
-Romans
-1985 : Le Loup d'écume
+Le 7e roman mettant en scène le commissaire Antonio C. Padovani était en cours d'écriture. Il restera inachevé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Frédéric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Son œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1985 : Le Loup d'écume
 1986 : Des lendemains enchanteurs
 1987 : Au bord de la Mer Blanche
 1987 : Jeunes femmes rouges toujours plus belles
 1988 : Une charrette pleine d'étoiles
 1991 : Frivolités d'un siècle d'or
 1994 : La Manière douce
-1999 : Quadrige
-Romans historiques
-2001 : Les Foulards rouges (Prix des Maisons de la Presse 2001,  Grand prix Paul-Féval 2001, Prix Jean d'Heurs du roman historique 2001)
+1999 : Quadrige</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Frédéric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Son œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Romans historiques</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2001 : Les Foulards rouges (Prix des Maisons de la Presse 2001,  Grand prix Paul-Féval 2001, Prix Jean d'Heurs du roman historique 2001)
 2003 : Le Voleur de vent (Prix du Roman populaire (Elven) 2003)
 2005 : Liberté, liberté chérie I : La Tour des demoiselles
 2006 : Liberté, liberté chérie II : La Lanterne des morts
 2007 : Le Conseil des troubles
-Inédit : Le Dragon vert(court roman, ébauche du Voleur de vent, paru sous forme de feuilleton dans l'hebdomadaire La Vie et disponible sur www.fajardie.fr)
-Romans « des années sombres »
-1990 : Un homme en harmonie
+Inédit : Le Dragon vert(court roman, ébauche du Voleur de vent, paru sous forme de feuilleton dans l'hebdomadaire La Vie et disponible sur www.fajardie.fr)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Frédéric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Son œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Romans « des années sombres »</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1990 : Un homme en harmonie
 2000 : Ciao, Bella, ciao ! (Prix Charles-Péguy 2001)
-2002 : Un pont sur la Loire
-Littérature d'enfance et de jeunesse
-1986 : Sous la lune d'argent (illustrations : Catherine Munière)
+2002 : Un pont sur la Loire</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Frédéric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Son œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1986 : Sous la lune d'argent (illustrations : Catherine Munière)
 1992 : L'Homme vêtu de pourpre
 1993 : Les Aventures de Château-Trompette
 1996 : La Planque
-1998 : Combats de nuit
-Nouvelles
-Frédéric H. Fajardie a écrit 365 nouvelles, un clin d'œil à ses lecteurs qui peuvent ainsi en lire une chaque jour. Ces nouvelles, témoignages des années 1960 aux années 1990, peuvent être considérées comme une approche sociologique de ces époques[9].
+1998 : Combats de nuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Frédéric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Son œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Frédéric H. Fajardie a écrit 365 nouvelles, un clin d'œil à ses lecteurs qui peuvent ainsi en lire une chaque jour. Ces nouvelles, témoignages des années 1960 aux années 1990, peuvent être considérées comme une approche sociologique de ces époques.
 1980 : Le Loup par les oreilles
 1983 : La Colline de cristal
 1984 : La Mare du petit malheur
@@ -623,61 +890,270 @@
 1998 : Adieu Alice, adieu Sweetheart
 1999 : Chrysalide des villes
 2000 : « Série grise » (ou « Série grise 93K », 8 petits volumes titrés F, A, J, A, R, D, I et E)
-2000 : Le Boulevard maritime (photos : Dolorès Marat)
-Essais, pamphlets
-1993 : Chronique d'une liquidation politique
+2000 : Le Boulevard maritime (photos : Dolorès Marat)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Frédéric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Son œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Essais, pamphlets</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1993 : Chronique d'une liquidation politique
 Metaleurop, paroles ouvrières
-Petit traité de la chasse
-Autres publications
-1996 : Égérie légère (dessins à la plume : Luz)
+Petit traité de la chasse</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Frédéric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Son œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1996 : Égérie légère (dessins à la plume : Luz)
 Roman photo (photos : Marc Gantier)
-Feu sur le quartier général ! (aphorismes)
-Anthologies
-Nouvelles noires, Messidor (2 tomes)
+Feu sur le quartier général ! (aphorismes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Frédéric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Son œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Anthologies</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nouvelles noires, Messidor (2 tomes)
 Nouvelles d'un siècle l'autre, Fayard (2 tomes)
-Romans noirs, Fayard (1 seul tome paru)
-Bandes dessinées
-La Nuit des chats bottés (dessins : Boris Beuzelin)
-Théâtre
-Il a écrit 84 pièces radiophoniques, pour France Inter[10].
+Romans noirs, Fayard (1 seul tome paru)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Frédéric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Son œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>La Nuit des chats bottés (dessins : Boris Beuzelin)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Frédéric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Son œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a écrit 84 pièces radiophoniques, pour France Inter.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Frédéric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cinéma
-1985 : Parole de flic, film français réalisé par José Pinheiro, scénario de Frédéric H. Fajardie, Delon et Pinheiro, avec Alain Delon, Jacques Perrin, Fiona Gélin, Vincent Lindon, Jean-François Stévenin, Éva Darlan…
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1985 : Parole de flic, film français réalisé par José Pinheiro, scénario de Frédéric H. Fajardie, Delon et Pinheiro, avec Alain Delon, Jacques Perrin, Fiona Gélin, Vincent Lindon, Jean-François Stévenin, Éva Darlan…
 1987 : Le Cœur musicien, film français réalisé par Frédéric Rossif
 1988 : Ne réveillez pas un flic qui dort, film français réalisé par José Pinheiro, scénario de Frédéric H. Fajardie d'après son roman Clause de style, avec Alain Delon, Michel Serrault, Xavier Deluc, Patrick Catalifo, Bernard Farcy, Serge Reggiani, Vivien Savage, Féodor Atkine, Jean-Louis Foulquier, Raymond Gérôme,...
 1990 : La Femme fardée, film français réalisé par José Pinheiro, scénario de Frédéric H. Fajardie et de nombreux collaborateurs d'après le roman éponyme de Françoise Sagan, avec Jeanne Moreau, Jacqueline Maillan, André Dussollier, Anthony Delon, Jean-Claude Brialy, Jean-Marc Thibault, Daniel Mesguich, Francis Huster, Philippe Khorsand, Jacques Fabbri,...
-1993 : Vent d'est, film français réalisé par Robert Enrico, scénario original de Frédéric H. Fajardie, Robert Enrico et Marc Miller, avec Malcolm McDowell, Wojciech Pszoniak, Pierre Vaneck, Jean-François Balmer, Catherine Frot, Clémentine Célarié, Ludmila Mikaël,...
-Télévision
-1985 : La Théorie du 1 %, épisode 2, saison 1 de la série télévisée française Néo Polar réalisé par Gérard Marx, d'après le roman éponyme, avec François Siener, Olivia Brunaux, Bernard Farcy, Philippe du Janerand
+1993 : Vent d'est, film français réalisé par Robert Enrico, scénario original de Frédéric H. Fajardie, Robert Enrico et Marc Miller, avec Malcolm McDowell, Wojciech Pszoniak, Pierre Vaneck, Jean-François Balmer, Catherine Frot, Clémentine Célarié, Ludmila Mikaël,...</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Frédéric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1985 : La Théorie du 1 %, épisode 2, saison 1 de la série télévisée française Néo Polar réalisé par Gérard Marx, d'après le roman éponyme, avec François Siener, Olivia Brunaux, Bernard Farcy, Philippe du Janerand
 1988 : Sous la lune d'argent, épisode 9, saison 1 de la série télévisée française Souris noire réalisé par Maurice Frydland, d'après le roman éponyme, avec Vanessa Guedj
 1988 : Donnant-donnant, épisode 9, saison 1 de la série télévisée française Sueurs froides réalisé par José Pinheiro, avec Jacques Perrin, Anaïs Jeanneret, Pierre Malet, Christian Charmetant, Claude Chabrol, Francine et Frédéric H. Fajardie
 1989 : David Lansky (4 épisodes de la série télévisée française), réalisé par Hervé Palud, avec Johnny Hallyday, Véronique Genest, Mouss Diouf, Maurice Barrier :
@@ -694,31 +1170,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Frédéric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_H._Fajardie</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">1994 : Prix Paris-Première pour Patte de velours
 1997 : Prix Entre guillemets pour Bleu de méthylène
